--- a/DHS Surveys for Birth Spacing Reports 070623.xlsx
+++ b/DHS Surveys for Birth Spacing Reports 070623.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KristinBietsch\files\DHS Data\Birth Spacing Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65CD41-81A4-4396-BBE8-4332941E7458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B84A4C-C0E9-4709-96F5-B4E22C42BE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA47DFE6-9D9A-4654-B76D-92048357553F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{CA47DFE6-9D9A-4654-B76D-92048357553F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$300</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="725">
   <si>
     <t>CountryYear</t>
   </si>
@@ -2304,6 +2304,15 @@
   </si>
   <si>
     <t>Philippines 2022</t>
+  </si>
+  <si>
+    <t>Gabon 2019-21</t>
+  </si>
+  <si>
+    <t>2019-21</t>
+  </si>
+  <si>
+    <t>GA2019DHS</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2495,29 +2504,20 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2835,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010E2F80-A237-494E-9092-D013C6435C05}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2850,7 +2850,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>713</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2873,13 +2873,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D2" t="s">
@@ -2896,13 +2896,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D3">
@@ -2919,13 +2919,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D4">
@@ -2942,13 +2942,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D5">
@@ -2965,13 +2965,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>440</v>
       </c>
       <c r="D6" t="s">
@@ -2988,13 +2988,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="3" t="s">
         <v>468</v>
       </c>
       <c r="D7">
@@ -3011,13 +3011,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>488</v>
       </c>
       <c r="D8" t="s">
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3057,13 +3057,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D10">
@@ -3080,13 +3080,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D11">
@@ -3098,18 +3098,18 @@
       <c r="F11" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D12">
@@ -3126,13 +3126,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="3" t="s">
         <v>313</v>
       </c>
       <c r="D13">
@@ -3149,13 +3149,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>359</v>
       </c>
       <c r="D14">
@@ -3172,13 +3172,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>670</v>
       </c>
       <c r="D15">
@@ -3195,7 +3195,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3218,13 +3218,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
@@ -3241,13 +3241,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D18">
@@ -3264,7 +3264,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>718</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3287,13 +3287,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>233</v>
       </c>
       <c r="D20">
@@ -3310,13 +3310,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>331</v>
       </c>
       <c r="D21" t="s">
@@ -3333,13 +3333,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>369</v>
       </c>
       <c r="D22" t="s">
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3379,13 +3379,13 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="3" t="s">
         <v>525</v>
       </c>
       <c r="D24">
@@ -3402,13 +3402,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="3" t="s">
         <v>553</v>
       </c>
       <c r="D25" t="s">
@@ -3425,7 +3425,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3448,13 +3448,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="3" t="s">
         <v>262</v>
       </c>
       <c r="D27">
@@ -3471,7 +3471,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3494,7 +3494,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3517,13 +3517,13 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D30">
@@ -3540,13 +3540,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D31">
@@ -3563,7 +3563,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3586,13 +3586,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D33">
@@ -3604,18 +3604,18 @@
       <c r="F33" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D34">
@@ -3632,13 +3632,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>381</v>
       </c>
       <c r="D35">
@@ -3655,13 +3655,13 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="3" t="s">
         <v>540</v>
       </c>
       <c r="D36">
@@ -3678,7 +3678,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3701,13 +3701,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>609</v>
       </c>
       <c r="D38">
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3747,13 +3747,13 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D40">
@@ -3770,13 +3770,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D41">
@@ -3788,18 +3788,18 @@
       <c r="F41" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="3" t="s">
         <v>212</v>
       </c>
       <c r="D42">
@@ -3816,7 +3816,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3839,13 +3839,13 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="3" t="s">
         <v>450</v>
       </c>
       <c r="D44">
@@ -3862,7 +3862,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3885,7 +3885,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3931,26 +3931,26 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D48">
-        <v>2012</v>
+      <c r="D48" t="s">
+        <v>723</v>
       </c>
       <c r="E48">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F48" t="s">
         <v>223</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>724</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3958,10 +3958,10 @@
         <v>719</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="D49">
         <v>2012</v>
@@ -3970,21 +3970,21 @@
         <v>2012</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="G49" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>265</v>
+      <c r="B50" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="D50">
         <v>2012</v>
@@ -3993,10 +3993,10 @@
         <v>2012</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G50" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -4004,10 +4004,10 @@
         <v>719</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>295</v>
+        <v>267</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="D51">
         <v>2012</v>
@@ -4016,21 +4016,21 @@
         <v>2012</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G51" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>313</v>
+      <c r="B52" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="D52">
         <v>2012</v>
@@ -4039,10 +4039,10 @@
         <v>2012</v>
       </c>
       <c r="F52" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G52" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -4050,10 +4050,10 @@
         <v>719</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D53">
         <v>2012</v>
@@ -4062,90 +4062,90 @@
         <v>2012</v>
       </c>
       <c r="F53" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="G53" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D54" t="s">
-        <v>400</v>
+      <c r="B54" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54">
+        <v>2012</v>
       </c>
       <c r="E54">
         <v>2012</v>
       </c>
       <c r="F54" t="s">
+        <v>347</v>
+      </c>
+      <c r="G54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="G54" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D55">
-        <v>2012</v>
+      <c r="D55" t="s">
+        <v>400</v>
       </c>
       <c r="E55">
         <v>2012</v>
       </c>
       <c r="F55" t="s">
+        <v>397</v>
+      </c>
+      <c r="G55" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G55" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="D56" t="s">
-        <v>400</v>
+      <c r="D56">
+        <v>2012</v>
       </c>
       <c r="E56">
         <v>2012</v>
       </c>
       <c r="F56" t="s">
+        <v>468</v>
+      </c>
+      <c r="G56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G56" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>556</v>
       </c>
       <c r="D57" t="s">
         <v>400</v>
@@ -4154,33 +4154,33 @@
         <v>2012</v>
       </c>
       <c r="F57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="G57" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D58">
-        <v>2012</v>
+      <c r="D58" t="s">
+        <v>400</v>
       </c>
       <c r="E58">
         <v>2012</v>
       </c>
       <c r="F58" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="G58" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4188,45 +4188,45 @@
         <v>719</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>160</v>
+        <v>606</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" t="s">
-        <v>162</v>
+        <v>604</v>
+      </c>
+      <c r="D59">
+        <v>2012</v>
       </c>
       <c r="E59">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
+        <v>604</v>
       </c>
       <c r="G59" t="s">
-        <v>164</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60">
-        <v>2013</v>
+      <c r="B60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>162</v>
       </c>
       <c r="E60">
         <v>2013</v>
       </c>
       <c r="F60" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G60" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -4234,10 +4234,10 @@
         <v>719</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="D61">
         <v>2013</v>
@@ -4246,21 +4246,21 @@
         <v>2013</v>
       </c>
       <c r="F61" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="G61" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>359</v>
+      <c r="B62" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="D62">
         <v>2013</v>
@@ -4269,21 +4269,21 @@
         <v>2013</v>
       </c>
       <c r="F62" t="s">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="G62" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>440</v>
+      <c r="B63" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="D63">
         <v>2013</v>
@@ -4292,21 +4292,21 @@
         <v>2013</v>
       </c>
       <c r="F63" t="s">
-        <v>440</v>
+        <v>359</v>
       </c>
       <c r="G63" t="s">
-        <v>441</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>477</v>
+      <c r="B64" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="D64">
         <v>2013</v>
@@ -4315,10 +4315,10 @@
         <v>2013</v>
       </c>
       <c r="F64" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="G64" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4326,10 +4326,10 @@
         <v>719</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="D65">
         <v>2013</v>
@@ -4338,10 +4338,10 @@
         <v>2013</v>
       </c>
       <c r="F65" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="G65" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4349,10 +4349,10 @@
         <v>719</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="D66">
         <v>2013</v>
@@ -4361,67 +4361,67 @@
         <v>2013</v>
       </c>
       <c r="F66" t="s">
+        <v>525</v>
+      </c>
+      <c r="G66" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="G66" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="D67" t="s">
-        <v>162</v>
+      <c r="D67">
+        <v>2013</v>
       </c>
       <c r="E67">
         <v>2013</v>
       </c>
       <c r="F67" t="s">
+        <v>582</v>
+      </c>
+      <c r="G67" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="G67" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="D68">
-        <v>2013</v>
+      <c r="D68" t="s">
+        <v>162</v>
       </c>
       <c r="E68">
         <v>2013</v>
       </c>
       <c r="F68" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G68" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>682</v>
+      <c r="B69" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>646</v>
       </c>
       <c r="D69">
         <v>2013</v>
@@ -4430,67 +4430,67 @@
         <v>2013</v>
       </c>
       <c r="F69" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="G69" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="D70" t="s">
-        <v>162</v>
+      <c r="B70" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D70">
+        <v>2013</v>
       </c>
       <c r="E70">
         <v>2013</v>
       </c>
       <c r="F70" t="s">
+        <v>682</v>
+      </c>
+      <c r="G70" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="G70" t="s">
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71">
+        <v>2013</v>
+      </c>
+      <c r="F71" t="s">
+        <v>687</v>
+      </c>
+      <c r="G71" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71">
-        <v>2014</v>
-      </c>
-      <c r="E71">
-        <v>2014</v>
-      </c>
-      <c r="F71" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>103</v>
+      <c r="B72" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D72">
         <v>2014</v>
@@ -4499,56 +4499,56 @@
         <v>2014</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>126</v>
+      <c r="B73" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>2014</v>
       </c>
       <c r="E73">
         <v>2014</v>
       </c>
       <c r="F73" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D74">
-        <v>2014</v>
+      <c r="B74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" t="s">
+        <v>128</v>
       </c>
       <c r="E74">
         <v>2014</v>
       </c>
       <c r="F74" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="G74" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4556,10 +4556,10 @@
         <v>719</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D75">
         <v>2014</v>
@@ -4568,56 +4568,56 @@
         <v>2014</v>
       </c>
       <c r="F75" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="G75" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" t="s">
-        <v>128</v>
+      <c r="B76" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76">
+        <v>2014</v>
       </c>
       <c r="E76">
         <v>2014</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G76" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D77">
-        <v>2014</v>
+      <c r="B77" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
       </c>
       <c r="E77">
         <v>2014</v>
       </c>
       <c r="F77" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
-        <v>334</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4625,10 +4625,10 @@
         <v>719</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D78">
         <v>2014</v>
@@ -4637,79 +4637,79 @@
         <v>2014</v>
       </c>
       <c r="F78" t="s">
+        <v>331</v>
+      </c>
+      <c r="G78" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="D79" t="s">
-        <v>128</v>
+      <c r="D79">
+        <v>2014</v>
       </c>
       <c r="E79">
         <v>2014</v>
       </c>
       <c r="F79" t="s">
+        <v>352</v>
+      </c>
+      <c r="G79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="G79" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D80">
-        <v>2014</v>
+      <c r="D80" t="s">
+        <v>128</v>
       </c>
       <c r="E80">
         <v>2014</v>
       </c>
       <c r="F80" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="G80" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>7</v>
+      <c r="B81" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="D81">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E81">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
+        <v>556</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4717,33 +4717,33 @@
         <v>719</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>2015</v>
       </c>
       <c r="E82">
         <v>2015</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>21</v>
+      <c r="B83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -4752,10 +4752,10 @@
         <v>2015</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4763,22 +4763,22 @@
         <v>719</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84">
-        <v>2015</v>
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
       </c>
       <c r="E84">
         <v>2015</v>
       </c>
       <c r="F84" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4786,33 +4786,33 @@
         <v>719</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D85" t="s">
-        <v>18</v>
+        <v>135</v>
+      </c>
+      <c r="D85">
+        <v>2015</v>
       </c>
       <c r="E85">
         <v>2015</v>
       </c>
       <c r="F85" t="s">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="G85" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>381</v>
+      <c r="B86" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -4821,148 +4821,148 @@
         <v>2015</v>
       </c>
       <c r="F86" t="s">
-        <v>381</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="G86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D87">
-        <v>2015</v>
+      <c r="B87" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
       <c r="F87" t="s">
-        <v>428</v>
-      </c>
-      <c r="G87" t="s">
-        <v>429</v>
+        <v>381</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B88" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="D88" t="s">
-        <v>18</v>
+      <c r="B88" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D88">
+        <v>2015</v>
       </c>
       <c r="E88">
         <v>2015</v>
       </c>
       <c r="F88" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G88" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B89" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="D89">
-        <v>2015</v>
+      <c r="B89" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
       <c r="F89" t="s">
-        <v>556</v>
+        <v>437</v>
       </c>
       <c r="G89" t="s">
-        <v>565</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="D90" t="s">
-        <v>18</v>
+      <c r="B90" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D90">
+        <v>2015</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
       <c r="F90" t="s">
-        <v>610</v>
+        <v>556</v>
       </c>
       <c r="G90" t="s">
-        <v>611</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="D91">
-        <v>2015</v>
+      <c r="B91" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
       </c>
       <c r="E91">
         <v>2015</v>
       </c>
       <c r="F91" t="s">
-        <v>701</v>
+        <v>610</v>
       </c>
       <c r="G91" t="s">
-        <v>702</v>
+        <v>611</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" t="s">
-        <v>94</v>
+      <c r="B92" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="D92">
+        <v>2015</v>
       </c>
       <c r="E92">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F92" t="s">
-        <v>93</v>
+        <v>701</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>702</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4970,22 +4970,22 @@
         <v>719</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D93">
-        <v>2016</v>
+        <v>93</v>
+      </c>
+      <c r="D93" t="s">
+        <v>94</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="F93" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="G93" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4993,33 +4993,33 @@
         <v>719</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D94" t="s">
-        <v>94</v>
+        <v>212</v>
+      </c>
+      <c r="D94">
+        <v>2016</v>
       </c>
       <c r="E94">
         <v>2016</v>
       </c>
       <c r="F94" t="s">
+        <v>212</v>
+      </c>
+      <c r="G94" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G94" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="D95" t="s">
         <v>94</v>
@@ -5028,33 +5028,33 @@
         <v>2016</v>
       </c>
       <c r="F95" t="s">
-        <v>392</v>
+        <v>265</v>
       </c>
       <c r="G95" t="s">
-        <v>393</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B96" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="D96">
-        <v>2016</v>
+      <c r="B96" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D96" t="s">
+        <v>94</v>
       </c>
       <c r="E96">
         <v>2016</v>
       </c>
       <c r="F96" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
       <c r="G96" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -5062,56 +5062,56 @@
         <v>719</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D97" t="s">
-        <v>502</v>
+        <v>450</v>
+      </c>
+      <c r="D97">
+        <v>2016</v>
       </c>
       <c r="E97">
         <v>2016</v>
       </c>
       <c r="F97" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="G97" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D98">
-        <v>2016</v>
+      <c r="B98" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D98" t="s">
+        <v>502</v>
       </c>
       <c r="E98">
         <v>2016</v>
       </c>
       <c r="F98" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="G98" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B99" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>589</v>
+      <c r="B99" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="D99">
         <v>2016</v>
@@ -5120,10 +5120,10 @@
         <v>2016</v>
       </c>
       <c r="F99" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="G99" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -5131,10 +5131,10 @@
         <v>719</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="D100">
         <v>2016</v>
@@ -5143,21 +5143,21 @@
         <v>2016</v>
       </c>
       <c r="F100" t="s">
+        <v>589</v>
+      </c>
+      <c r="G100" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="G100" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>655</v>
       </c>
       <c r="D101">
         <v>2016</v>
@@ -5166,44 +5166,44 @@
         <v>2016</v>
       </c>
       <c r="F101" t="s">
+        <v>627</v>
+      </c>
+      <c r="G101" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="G101" t="s">
+      <c r="D102">
+        <v>2016</v>
+      </c>
+      <c r="E102">
+        <v>2016</v>
+      </c>
+      <c r="F102" t="s">
+        <v>655</v>
+      </c>
+      <c r="G102" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B103" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C103" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102">
-        <v>2017</v>
-      </c>
-      <c r="F102" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
@@ -5212,21 +5212,21 @@
         <v>2017</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>53</v>
+      <c r="B104" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
@@ -5235,56 +5235,56 @@
         <v>2017</v>
       </c>
       <c r="F104" t="s">
-        <v>53</v>
-      </c>
-      <c r="G104" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B105" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D105">
-        <v>2017</v>
+      <c r="B105" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
       </c>
       <c r="E105">
         <v>2017</v>
       </c>
       <c r="F105" t="s">
-        <v>295</v>
+        <v>53</v>
       </c>
       <c r="G105" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B106" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D106" t="s">
-        <v>11</v>
+      <c r="B106" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D106">
+        <v>2017</v>
       </c>
       <c r="E106">
         <v>2017</v>
       </c>
       <c r="F106" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G106" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -5292,10 +5292,10 @@
         <v>719</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>487</v>
+        <v>312</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>488</v>
+        <v>313</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
@@ -5304,44 +5304,44 @@
         <v>2017</v>
       </c>
       <c r="F107" t="s">
-        <v>488</v>
+        <v>313</v>
       </c>
       <c r="G107" t="s">
-        <v>489</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="D108">
-        <v>2017</v>
+      <c r="B108" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
       </c>
       <c r="E108">
         <v>2017</v>
       </c>
       <c r="F108" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="G108" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>556</v>
+      <c r="B109" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="D109">
         <v>2017</v>
@@ -5350,10 +5350,10 @@
         <v>2017</v>
       </c>
       <c r="F109" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="G109" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -5361,10 +5361,10 @@
         <v>719</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="D110">
         <v>2017</v>
@@ -5373,10 +5373,10 @@
         <v>2017</v>
       </c>
       <c r="F110" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="G110" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -5384,33 +5384,33 @@
         <v>719</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>603</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>112</v>
+        <v>604</v>
       </c>
       <c r="D111">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E111">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F111" t="s">
-        <v>112</v>
+        <v>604</v>
       </c>
       <c r="G111" t="s">
-        <v>113</v>
+        <v>605</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>253</v>
+      <c r="B112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D112">
         <v>2018</v>
@@ -5419,10 +5419,10 @@
         <v>2018</v>
       </c>
       <c r="F112" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="G112" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -5430,10 +5430,10 @@
         <v>719</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
       <c r="D113">
         <v>2018</v>
@@ -5442,21 +5442,21 @@
         <v>2018</v>
       </c>
       <c r="F113" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
       <c r="G113" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>477</v>
+      <c r="B114" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="D114">
         <v>2018</v>
@@ -5465,21 +5465,21 @@
         <v>2018</v>
       </c>
       <c r="F114" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="G114" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>556</v>
+      <c r="B115" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="D115">
         <v>2018</v>
@@ -5488,21 +5488,21 @@
         <v>2018</v>
       </c>
       <c r="F115" t="s">
-        <v>556</v>
+        <v>477</v>
       </c>
       <c r="G115" t="s">
-        <v>559</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B116" s="19" t="s">
-        <v>686</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>687</v>
+      <c r="B116" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="D116">
         <v>2018</v>
@@ -5511,10 +5511,10 @@
         <v>2018</v>
       </c>
       <c r="F116" t="s">
-        <v>687</v>
+        <v>556</v>
       </c>
       <c r="G116" t="s">
-        <v>688</v>
+        <v>559</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -5522,22 +5522,22 @@
         <v>719</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>212</v>
+        <v>686</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="D117">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E117">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
-      </c>
-      <c r="G117" s="17" t="s">
-        <v>213</v>
+        <v>687</v>
+      </c>
+      <c r="G117" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -5545,10 +5545,10 @@
         <v>719</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D118">
         <v>2019</v>
@@ -5557,102 +5557,102 @@
         <v>2019</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
-      </c>
-      <c r="G118" t="s">
-        <v>229</v>
+        <v>212</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D119" t="s">
-        <v>283</v>
+      <c r="B119" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119">
+        <v>2019</v>
       </c>
       <c r="E119">
         <v>2019</v>
       </c>
       <c r="F119" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="G119" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>359</v>
+      <c r="B120" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="D120" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="E120">
         <v>2019</v>
       </c>
       <c r="F120" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="G120" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>412</v>
+      <c r="B121" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="D121" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="E121">
         <v>2019</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>413</v>
+      <c r="F121" t="s">
+        <v>359</v>
+      </c>
+      <c r="G121" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D122">
-        <v>2019</v>
+      <c r="B122" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D122" t="s">
+        <v>283</v>
       </c>
       <c r="E122">
         <v>2019</v>
       </c>
-      <c r="F122" t="s">
-        <v>540</v>
-      </c>
-      <c r="G122" t="s">
-        <v>541</v>
+      <c r="F122" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -5660,10 +5660,10 @@
         <v>719</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="D123">
         <v>2019</v>
@@ -5672,21 +5672,21 @@
         <v>2019</v>
       </c>
       <c r="F123" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="G123" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>582</v>
+      <c r="B124" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="D124">
         <v>2019</v>
@@ -5695,10 +5695,10 @@
         <v>2019</v>
       </c>
       <c r="F124" t="s">
-        <v>582</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>583</v>
+        <v>556</v>
+      </c>
+      <c r="G124" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -5706,22 +5706,22 @@
         <v>719</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>720</v>
+        <v>581</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D125" t="s">
-        <v>101</v>
+        <v>582</v>
+      </c>
+      <c r="D125">
+        <v>2019</v>
       </c>
       <c r="E125">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F125" t="s">
-        <v>100</v>
-      </c>
-      <c r="G125" t="s">
-        <v>102</v>
+        <v>582</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -5729,56 +5729,56 @@
         <v>719</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D126">
-        <v>2021</v>
+        <v>720</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" t="s">
+        <v>101</v>
       </c>
       <c r="E126">
         <v>2021</v>
       </c>
       <c r="F126" t="s">
-        <v>369</v>
+        <v>100</v>
       </c>
       <c r="G126" t="s">
-        <v>370</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>331</v>
+      <c r="B127" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="D127">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E127">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F127" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="G127" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B128" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>450</v>
+      <c r="B128" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="D128">
         <v>2022</v>
@@ -5787,10 +5787,10 @@
         <v>2022</v>
       </c>
       <c r="F128" t="s">
-        <v>450</v>
+        <v>331</v>
       </c>
       <c r="G128" t="s">
-        <v>451</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5798,10 +5798,10 @@
         <v>719</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>721</v>
+        <v>449</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="D129">
         <v>2022</v>
@@ -5810,90 +5810,90 @@
         <v>2022</v>
       </c>
       <c r="F129" t="s">
+        <v>450</v>
+      </c>
+      <c r="G129" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="G129" t="s">
+      <c r="D130">
+        <v>2022</v>
+      </c>
+      <c r="E130">
+        <v>2022</v>
+      </c>
+      <c r="F130" t="s">
+        <v>525</v>
+      </c>
+      <c r="G130" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="11" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B131" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C131" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="D130">
+      <c r="D131">
         <v>2003</v>
       </c>
-      <c r="E130">
+      <c r="E131">
         <v>2003</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>646</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G131" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>2005</v>
-      </c>
-      <c r="E131">
-        <v>2005</v>
-      </c>
-      <c r="F131" t="s">
-        <v>100</v>
-      </c>
-      <c r="G131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>715</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D132" t="s">
-        <v>270</v>
       </c>
       <c r="E132">
         <v>2005</v>
       </c>
       <c r="F132" t="s">
+        <v>100</v>
+      </c>
+      <c r="G132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G132" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="11" t="s">
-        <v>715</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>705</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>701</v>
       </c>
       <c r="D133" t="s">
         <v>270</v>
@@ -5902,67 +5902,67 @@
         <v>2005</v>
       </c>
       <c r="F133" t="s">
+        <v>265</v>
+      </c>
+      <c r="G133" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="G133" t="s">
+      <c r="D134" t="s">
+        <v>270</v>
+      </c>
+      <c r="E134">
+        <v>2005</v>
+      </c>
+      <c r="F134" t="s">
+        <v>701</v>
+      </c>
+      <c r="G134" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D134" t="s">
-        <v>44</v>
-      </c>
-      <c r="E134">
-        <v>1999</v>
-      </c>
-      <c r="F134" t="s">
-        <v>33</v>
-      </c>
-      <c r="G134" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135">
+        <v>1999</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D135">
-        <v>2000</v>
-      </c>
-      <c r="E135">
-        <v>2000</v>
-      </c>
-      <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>100</v>
       </c>
       <c r="D136">
         <v>2000</v>
@@ -5971,21 +5971,21 @@
         <v>2000</v>
       </c>
       <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="G136" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="D137">
         <v>2000</v>
@@ -5994,21 +5994,21 @@
         <v>2000</v>
       </c>
       <c r="F137" t="s">
+        <v>100</v>
+      </c>
+      <c r="G137" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G137" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>194</v>
       </c>
       <c r="D138">
         <v>2000</v>
@@ -6017,10 +6017,10 @@
         <v>2000</v>
       </c>
       <c r="F138" t="s">
-        <v>194</v>
-      </c>
-      <c r="G138" s="21" t="s">
-        <v>201</v>
+        <v>135</v>
+      </c>
+      <c r="G138" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -6028,10 +6028,10 @@
         <v>714</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D139">
         <v>2000</v>
@@ -6040,10 +6040,10 @@
         <v>2000</v>
       </c>
       <c r="F139" t="s">
-        <v>212</v>
-      </c>
-      <c r="G139" s="21" t="s">
-        <v>221</v>
+        <v>194</v>
+      </c>
+      <c r="G139" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -6051,10 +6051,10 @@
         <v>714</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D140">
         <v>2000</v>
@@ -6063,21 +6063,21 @@
         <v>2000</v>
       </c>
       <c r="F140" t="s">
+        <v>212</v>
+      </c>
+      <c r="G140" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="G140" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>265</v>
       </c>
       <c r="D141">
         <v>2000</v>
@@ -6086,21 +6086,21 @@
         <v>2000</v>
       </c>
       <c r="F141" t="s">
+        <v>223</v>
+      </c>
+      <c r="G141" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G141" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>381</v>
       </c>
       <c r="D142">
         <v>2000</v>
@@ -6109,21 +6109,21 @@
         <v>2000</v>
       </c>
       <c r="F142" t="s">
+        <v>265</v>
+      </c>
+      <c r="G142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="G142" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>440</v>
       </c>
       <c r="D143">
         <v>2000</v>
@@ -6132,21 +6132,21 @@
         <v>2000</v>
       </c>
       <c r="F143" t="s">
+        <v>381</v>
+      </c>
+      <c r="G143" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="G143" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>505</v>
       </c>
       <c r="D144">
         <v>2000</v>
@@ -6155,21 +6155,21 @@
         <v>2000</v>
       </c>
       <c r="F144" t="s">
+        <v>440</v>
+      </c>
+      <c r="G144" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="G144" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>540</v>
       </c>
       <c r="D145">
         <v>2000</v>
@@ -6178,67 +6178,67 @@
         <v>2000</v>
       </c>
       <c r="F145" t="s">
+        <v>505</v>
+      </c>
+      <c r="G145" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="G145" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D146" t="s">
-        <v>662</v>
+      <c r="D146">
+        <v>2000</v>
       </c>
       <c r="E146">
         <v>2000</v>
       </c>
       <c r="F146" t="s">
+        <v>540</v>
+      </c>
+      <c r="G146" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="G146" t="s">
+      <c r="D147" t="s">
+        <v>662</v>
+      </c>
+      <c r="E147">
+        <v>2000</v>
+      </c>
+      <c r="F147" t="s">
+        <v>655</v>
+      </c>
+      <c r="G147" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="19" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B148" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C148" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D147">
-        <v>2001</v>
-      </c>
-      <c r="E147">
-        <v>2001</v>
-      </c>
-      <c r="F147" t="s">
-        <v>53</v>
-      </c>
-      <c r="G147" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>397</v>
       </c>
       <c r="D148">
         <v>2001</v>
@@ -6247,21 +6247,21 @@
         <v>2001</v>
       </c>
       <c r="F148" t="s">
-        <v>397</v>
+        <v>53</v>
       </c>
       <c r="G148" t="s">
-        <v>405</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B149" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>450</v>
+      <c r="B149" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="D149">
         <v>2001</v>
@@ -6270,21 +6270,21 @@
         <v>2001</v>
       </c>
       <c r="F149" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="G149" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>463</v>
+      <c r="B150" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="D150">
         <v>2001</v>
@@ -6293,113 +6293,113 @@
         <v>2001</v>
       </c>
       <c r="F150" t="s">
+        <v>450</v>
+      </c>
+      <c r="G150" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="G150" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="D151" t="s">
-        <v>694</v>
+      <c r="D151">
+        <v>2001</v>
       </c>
       <c r="E151">
         <v>2001</v>
       </c>
       <c r="F151" t="s">
+        <v>463</v>
+      </c>
+      <c r="G151" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C152" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="G151" t="s">
+      <c r="D152" t="s">
+        <v>694</v>
+      </c>
+      <c r="E152">
+        <v>2001</v>
+      </c>
+      <c r="F152" t="s">
+        <v>687</v>
+      </c>
+      <c r="G152" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="19" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B153" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C153" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D152">
+      <c r="D153">
         <v>2002</v>
-      </c>
-      <c r="E152">
-        <v>2002</v>
-      </c>
-      <c r="F152" t="s">
-        <v>176</v>
-      </c>
-      <c r="G152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D153" t="s">
-        <v>302</v>
       </c>
       <c r="E153">
         <v>2002</v>
       </c>
       <c r="F153" t="s">
+        <v>176</v>
+      </c>
+      <c r="G153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="G153" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D154">
-        <v>2002</v>
+      <c r="D154" t="s">
+        <v>302</v>
       </c>
       <c r="E154">
         <v>2002</v>
       </c>
       <c r="F154" t="s">
+        <v>295</v>
+      </c>
+      <c r="G154" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C155" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="G154" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>675</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>676</v>
       </c>
       <c r="D155">
         <v>2002</v>
@@ -6408,10 +6408,10 @@
         <v>2002</v>
       </c>
       <c r="F155" t="s">
-        <v>677</v>
+        <v>313</v>
       </c>
       <c r="G155" t="s">
-        <v>678</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -6419,33 +6419,33 @@
         <v>714</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D156">
+        <v>2002</v>
+      </c>
+      <c r="E156">
+        <v>2002</v>
+      </c>
+      <c r="F156" t="s">
+        <v>677</v>
+      </c>
+      <c r="G156" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D156">
-        <v>2003</v>
-      </c>
-      <c r="E156">
-        <v>2003</v>
-      </c>
-      <c r="F156" t="s">
-        <v>65</v>
-      </c>
-      <c r="G156" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="D157">
         <v>2003</v>
@@ -6454,21 +6454,21 @@
         <v>2003</v>
       </c>
       <c r="F157" t="s">
+        <v>65</v>
+      </c>
+      <c r="G157" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="G157" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="D158">
         <v>2003</v>
@@ -6477,21 +6477,21 @@
         <v>2003</v>
       </c>
       <c r="F158" t="s">
+        <v>83</v>
+      </c>
+      <c r="G158" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C159" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="G158" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>233</v>
       </c>
       <c r="D159">
         <v>2003</v>
@@ -6500,21 +6500,21 @@
         <v>2003</v>
       </c>
       <c r="F159" t="s">
+        <v>194</v>
+      </c>
+      <c r="G159" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="G159" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D160">
         <v>2003</v>
@@ -6523,44 +6523,44 @@
         <v>2003</v>
       </c>
       <c r="F160" t="s">
+        <v>233</v>
+      </c>
+      <c r="G160" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="G160" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="D161" t="s">
-        <v>374</v>
+      <c r="D161">
+        <v>2003</v>
       </c>
       <c r="E161">
         <v>2003</v>
       </c>
       <c r="F161" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="G161" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>421</v>
+      <c r="B162" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="D162" t="s">
         <v>374</v>
@@ -6569,44 +6569,44 @@
         <v>2003</v>
       </c>
       <c r="F162" t="s">
+        <v>369</v>
+      </c>
+      <c r="G162" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G162" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B163" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D163">
-        <v>2003</v>
+      <c r="D163" t="s">
+        <v>374</v>
       </c>
       <c r="E163">
         <v>2003</v>
       </c>
       <c r="F163" t="s">
+        <v>421</v>
+      </c>
+      <c r="G163" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="G163" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>477</v>
       </c>
       <c r="D164">
         <v>2003</v>
@@ -6615,21 +6615,21 @@
         <v>2003</v>
       </c>
       <c r="F164" t="s">
+        <v>428</v>
+      </c>
+      <c r="G164" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C165" s="12" t="s">
         <v>477</v>
-      </c>
-      <c r="G164" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="D165">
         <v>2003</v>
@@ -6638,44 +6638,44 @@
         <v>2003</v>
       </c>
       <c r="F165" t="s">
+        <v>477</v>
+      </c>
+      <c r="G165" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="G165" t="s">
+      <c r="D166">
+        <v>2003</v>
+      </c>
+      <c r="E166">
+        <v>2003</v>
+      </c>
+      <c r="F166" t="s">
+        <v>525</v>
+      </c>
+      <c r="G166" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="19" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B167" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C167" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D166">
-        <v>2004</v>
-      </c>
-      <c r="E166">
-        <v>2004</v>
-      </c>
-      <c r="F166" t="s">
-        <v>33</v>
-      </c>
-      <c r="G166" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B167" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="D167">
         <v>2004</v>
@@ -6684,21 +6684,21 @@
         <v>2004</v>
       </c>
       <c r="F167" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="G167" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="D168">
         <v>2004</v>
@@ -6707,21 +6707,21 @@
         <v>2004</v>
       </c>
       <c r="F168" t="s">
+        <v>112</v>
+      </c>
+      <c r="G168" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="G168" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>352</v>
       </c>
       <c r="D169">
         <v>2004</v>
@@ -6730,10 +6730,10 @@
         <v>2004</v>
       </c>
       <c r="F169" t="s">
-        <v>352</v>
+        <v>127</v>
       </c>
       <c r="G169" t="s">
-        <v>357</v>
+        <v>131</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -6741,10 +6741,10 @@
         <v>714</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="D170">
         <v>2004</v>
@@ -6753,56 +6753,56 @@
         <v>2004</v>
       </c>
       <c r="F170" t="s">
+        <v>352</v>
+      </c>
+      <c r="G170" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G170" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="D171" t="s">
-        <v>514</v>
+      <c r="D171">
+        <v>2004</v>
       </c>
       <c r="E171">
         <v>2004</v>
       </c>
       <c r="F171" t="s">
-        <v>505</v>
+        <v>381</v>
       </c>
       <c r="G171" t="s">
-        <v>515</v>
+        <v>386</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>609</v>
+      <c r="B172" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>505</v>
       </c>
       <c r="D172" t="s">
-        <v>615</v>
+        <v>514</v>
       </c>
       <c r="E172">
         <v>2004</v>
       </c>
       <c r="F172" t="s">
-        <v>610</v>
+        <v>505</v>
       </c>
       <c r="G172" t="s">
-        <v>616</v>
+        <v>515</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -6810,33 +6810,33 @@
         <v>714</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D173" t="s">
+        <v>615</v>
+      </c>
+      <c r="E173">
+        <v>2004</v>
+      </c>
+      <c r="F173" t="s">
+        <v>610</v>
+      </c>
+      <c r="G173" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D173">
-        <v>2005</v>
-      </c>
-      <c r="E173">
-        <v>2005</v>
-      </c>
-      <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="D174">
         <v>2005</v>
@@ -6845,21 +6845,21 @@
         <v>2005</v>
       </c>
       <c r="F174" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="G174" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B175" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>155</v>
       </c>
       <c r="D175">
         <v>2005</v>
@@ -6868,21 +6868,21 @@
         <v>2005</v>
       </c>
       <c r="F175" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G175" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="19" t="s">
+      <c r="A176" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B176" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>194</v>
+      <c r="B176" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D176">
         <v>2005</v>
@@ -6891,10 +6891,10 @@
         <v>2005</v>
       </c>
       <c r="F176" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="G176" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -6902,10 +6902,10 @@
         <v>714</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>212</v>
+        <v>198</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D177">
         <v>2005</v>
@@ -6914,21 +6914,21 @@
         <v>2005</v>
       </c>
       <c r="F177" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G177" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B178" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>253</v>
+      <c r="B178" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D178">
         <v>2005</v>
@@ -6937,56 +6937,56 @@
         <v>2005</v>
       </c>
       <c r="F178" t="s">
+        <v>212</v>
+      </c>
+      <c r="G178" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G178" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B179" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D179" t="s">
-        <v>270</v>
+      <c r="D179">
+        <v>2005</v>
       </c>
       <c r="E179">
         <v>2005</v>
       </c>
       <c r="F179" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="G179" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B180" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D180">
-        <v>2005</v>
+      <c r="B180" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D180" t="s">
+        <v>270</v>
       </c>
       <c r="E180">
         <v>2005</v>
       </c>
       <c r="F180" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="G180" t="s">
-        <v>419</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -6994,10 +6994,10 @@
         <v>714</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>546</v>
+        <v>417</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>540</v>
+        <v>418</v>
       </c>
       <c r="D181">
         <v>2005</v>
@@ -7006,21 +7006,21 @@
         <v>2005</v>
       </c>
       <c r="F181" t="s">
+        <v>418</v>
+      </c>
+      <c r="G181" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="G181" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>556</v>
       </c>
       <c r="D182">
         <v>2005</v>
@@ -7029,60 +7029,63 @@
         <v>2005</v>
       </c>
       <c r="F182" t="s">
+        <v>540</v>
+      </c>
+      <c r="G182" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C183" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="G182" t="s">
+      <c r="D183">
+        <v>2005</v>
+      </c>
+      <c r="E183">
+        <v>2005</v>
+      </c>
+      <c r="F183" t="s">
+        <v>556</v>
+      </c>
+      <c r="G183" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C184" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D183">
+      <c r="D184">
         <v>1985</v>
       </c>
-      <c r="E183">
+      <c r="E184">
         <v>1985</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>209</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G184" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C185" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D184">
-        <v>1986</v>
-      </c>
-      <c r="E184">
-        <v>1986</v>
-      </c>
-      <c r="F184" t="s">
-        <v>76</v>
-      </c>
-      <c r="G184" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B185" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D185">
         <v>1986</v>
@@ -7091,18 +7094,18 @@
         <v>1986</v>
       </c>
       <c r="F185" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="G185" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>176</v>
+        <v>147</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D186">
         <v>1986</v>
@@ -7111,18 +7114,18 @@
         <v>1986</v>
       </c>
       <c r="F186" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="G186" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
-        <v>366</v>
+        <v>188</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>359</v>
+        <v>176</v>
       </c>
       <c r="D187">
         <v>1986</v>
@@ -7131,18 +7134,18 @@
         <v>1986</v>
       </c>
       <c r="F187" t="s">
-        <v>359</v>
+        <v>176</v>
       </c>
       <c r="G187" t="s">
-        <v>367</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
-        <v>523</v>
+        <v>366</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>505</v>
+        <v>359</v>
       </c>
       <c r="D188">
         <v>1986</v>
@@ -7151,18 +7154,18 @@
         <v>1986</v>
       </c>
       <c r="F188" t="s">
-        <v>505</v>
+        <v>359</v>
       </c>
       <c r="G188" t="s">
-        <v>524</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="D189">
         <v>1986</v>
@@ -7171,38 +7174,38 @@
         <v>1986</v>
       </c>
       <c r="F189" t="s">
+        <v>505</v>
+      </c>
+      <c r="G189" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B190" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="G189" t="s">
+      <c r="D190">
+        <v>1986</v>
+      </c>
+      <c r="E190">
+        <v>1986</v>
+      </c>
+      <c r="F190" t="s">
+        <v>556</v>
+      </c>
+      <c r="G190" t="s">
         <v>580</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B190" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D190">
-        <v>1987</v>
-      </c>
-      <c r="E190">
-        <v>1987</v>
-      </c>
-      <c r="F190" t="s">
-        <v>93</v>
-      </c>
-      <c r="G190" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="D191">
         <v>1987</v>
@@ -7211,19 +7214,18 @@
         <v>1987</v>
       </c>
       <c r="F191" t="s">
+        <v>93</v>
+      </c>
+      <c r="G191" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B192" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G191" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="D192">
         <v>1987</v>
@@ -7232,18 +7234,19 @@
         <v>1987</v>
       </c>
       <c r="F192" t="s">
+        <v>191</v>
+      </c>
+      <c r="G192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C193" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G192" s="21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B193" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D193">
         <v>1987</v>
@@ -7252,19 +7255,18 @@
         <v>1987</v>
       </c>
       <c r="F193" t="s">
+        <v>246</v>
+      </c>
+      <c r="G193" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B194" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="G193" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="19"/>
-      <c r="B194" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>397</v>
       </c>
       <c r="D194">
         <v>1987</v>
@@ -7273,19 +7275,18 @@
         <v>1987</v>
       </c>
       <c r="F194" t="s">
+        <v>295</v>
+      </c>
+      <c r="G194" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B195" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="G194" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="C195" s="20" t="s">
-        <v>415</v>
       </c>
       <c r="D195">
         <v>1987</v>
@@ -7294,19 +7295,18 @@
         <v>1987</v>
       </c>
       <c r="F195" t="s">
+        <v>397</v>
+      </c>
+      <c r="G195" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B196" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="G195" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="19"/>
-      <c r="B196" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>421</v>
       </c>
       <c r="D196">
         <v>1987</v>
@@ -7315,19 +7315,18 @@
         <v>1987</v>
       </c>
       <c r="F196" t="s">
+        <v>415</v>
+      </c>
+      <c r="G196" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B197" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="G196" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>594</v>
       </c>
       <c r="D197">
         <v>1987</v>
@@ -7336,19 +7335,18 @@
         <v>1987</v>
       </c>
       <c r="F197" t="s">
+        <v>421</v>
+      </c>
+      <c r="G197" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B198" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="G197" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="19"/>
-      <c r="B198" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="C198" s="20" t="s">
-        <v>624</v>
       </c>
       <c r="D198">
         <v>1987</v>
@@ -7357,19 +7355,18 @@
         <v>1987</v>
       </c>
       <c r="F198" t="s">
+        <v>594</v>
+      </c>
+      <c r="G198" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B199" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="G198" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>640</v>
       </c>
       <c r="D199">
         <v>1987</v>
@@ -7378,40 +7375,38 @@
         <v>1987</v>
       </c>
       <c r="F199" t="s">
+        <v>624</v>
+      </c>
+      <c r="G199" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B200" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="G199" t="s">
+      <c r="D200">
+        <v>1987</v>
+      </c>
+      <c r="E200">
+        <v>1987</v>
+      </c>
+      <c r="F200" t="s">
+        <v>640</v>
+      </c>
+      <c r="G200" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="19"/>
-      <c r="B200" s="19" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B201" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C201" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D200">
-        <v>1988</v>
-      </c>
-      <c r="E200">
-        <v>1988</v>
-      </c>
-      <c r="F200" t="s">
-        <v>194</v>
-      </c>
-      <c r="G200" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="19"/>
-      <c r="B201" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>233</v>
       </c>
       <c r="D201">
         <v>1988</v>
@@ -7420,19 +7415,18 @@
         <v>1988</v>
       </c>
       <c r="F201" t="s">
+        <v>194</v>
+      </c>
+      <c r="G201" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B202" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="G201" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="19"/>
-      <c r="B202" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>633</v>
       </c>
       <c r="D202">
         <v>1988</v>
@@ -7441,18 +7435,18 @@
         <v>1988</v>
       </c>
       <c r="F202" t="s">
-        <v>633</v>
+        <v>233</v>
       </c>
       <c r="G202" t="s">
-        <v>638</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B203" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D203">
         <v>1988</v>
@@ -7461,80 +7455,79 @@
         <v>1988</v>
       </c>
       <c r="F203" t="s">
+        <v>633</v>
+      </c>
+      <c r="G203" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B204" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="G203" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B204" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="D204" t="s">
-        <v>667</v>
+      <c r="D204">
+        <v>1988</v>
       </c>
       <c r="E204">
         <v>1988</v>
       </c>
       <c r="F204" t="s">
+        <v>643</v>
+      </c>
+      <c r="G204" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B205" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C205" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="G204" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="D205">
-        <v>1988</v>
+      <c r="D205" t="s">
+        <v>667</v>
       </c>
       <c r="E205">
         <v>1988</v>
       </c>
       <c r="F205" t="s">
+        <v>655</v>
+      </c>
+      <c r="G205" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C206" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="G205" t="s">
+      <c r="D206">
+        <v>1988</v>
+      </c>
+      <c r="E206">
+        <v>1988</v>
+      </c>
+      <c r="F206" t="s">
+        <v>701</v>
+      </c>
+      <c r="G206" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D206">
-        <v>1989</v>
-      </c>
-      <c r="E206">
-        <v>1989</v>
-      </c>
-      <c r="F206" t="s">
-        <v>65</v>
-      </c>
-      <c r="G206" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B207" s="2" t="s">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>331</v>
+        <v>65</v>
       </c>
       <c r="D207">
         <v>1989</v>
@@ -7543,59 +7536,58 @@
         <v>1989</v>
       </c>
       <c r="F207" t="s">
-        <v>331</v>
+        <v>65</v>
       </c>
       <c r="G207" t="s">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B208" s="2" t="s">
-        <v>596</v>
+        <v>343</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D208" t="s">
-        <v>598</v>
+        <v>331</v>
+      </c>
+      <c r="D208">
+        <v>1989</v>
       </c>
       <c r="E208">
         <v>1989</v>
       </c>
       <c r="F208" t="s">
+        <v>331</v>
+      </c>
+      <c r="G208" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B209" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="G208" t="s">
+      <c r="D209" t="s">
+        <v>598</v>
+      </c>
+      <c r="E209">
+        <v>1989</v>
+      </c>
+      <c r="F209" t="s">
+        <v>597</v>
+      </c>
+      <c r="G209" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="19"/>
-      <c r="B209" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D209">
-        <v>1990</v>
-      </c>
-      <c r="E209">
-        <v>1990</v>
-      </c>
-      <c r="F209" t="s">
-        <v>135</v>
-      </c>
-      <c r="G209" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B210" s="2" t="s">
-        <v>323</v>
+        <v>145</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="D210">
         <v>1990</v>
@@ -7604,19 +7596,18 @@
         <v>1990</v>
       </c>
       <c r="F210" t="s">
+        <v>135</v>
+      </c>
+      <c r="G210" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B211" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="G210" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="19"/>
-      <c r="B211" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>477</v>
       </c>
       <c r="D211">
         <v>1990</v>
@@ -7625,81 +7616,80 @@
         <v>1990</v>
       </c>
       <c r="F211" t="s">
+        <v>313</v>
+      </c>
+      <c r="G211" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B212" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G211" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="19"/>
-      <c r="B212" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="C212" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="D212" t="s">
-        <v>495</v>
+      <c r="D212">
+        <v>1990</v>
       </c>
       <c r="E212">
         <v>1990</v>
       </c>
       <c r="F212" t="s">
+        <v>477</v>
+      </c>
+      <c r="G212" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B213" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="G212" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="C213" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="D213">
-        <v>1990</v>
+      <c r="D213" t="s">
+        <v>495</v>
       </c>
       <c r="E213">
         <v>1990</v>
       </c>
       <c r="F213" t="s">
+        <v>488</v>
+      </c>
+      <c r="G213" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C214" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="G213" s="21" t="s">
+      <c r="D214">
+        <v>1990</v>
+      </c>
+      <c r="E214">
+        <v>1990</v>
+      </c>
+      <c r="F214" t="s">
+        <v>498</v>
+      </c>
+      <c r="G214" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11" t="s">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C215" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D214">
-        <v>1991</v>
-      </c>
-      <c r="E214">
-        <v>1991</v>
-      </c>
-      <c r="F214" t="s">
-        <v>76</v>
-      </c>
-      <c r="G214" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B215" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="D215">
         <v>1991</v>
@@ -7708,18 +7698,18 @@
         <v>1991</v>
       </c>
       <c r="F215" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G215" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B216" s="2" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="D216">
         <v>1991</v>
@@ -7728,18 +7718,18 @@
         <v>1991</v>
       </c>
       <c r="F216" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="G216" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B217" s="2" t="s">
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>295</v>
+        <v>176</v>
       </c>
       <c r="D217">
         <v>1991</v>
@@ -7748,40 +7738,38 @@
         <v>1991</v>
       </c>
       <c r="F217" t="s">
+        <v>176</v>
+      </c>
+      <c r="G217" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B218" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G217" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="19"/>
-      <c r="B218" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="C218" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="D218" t="s">
-        <v>521</v>
+      <c r="D218">
+        <v>1991</v>
       </c>
       <c r="E218">
         <v>1991</v>
       </c>
       <c r="F218" t="s">
+        <v>295</v>
+      </c>
+      <c r="G218" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B219" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="G218" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="19"/>
-      <c r="B219" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>609</v>
       </c>
       <c r="D219" t="s">
         <v>521</v>
@@ -7790,19 +7778,18 @@
         <v>1991</v>
       </c>
       <c r="F219" t="s">
-        <v>610</v>
+        <v>505</v>
       </c>
       <c r="G219" t="s">
-        <v>622</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="19"/>
-      <c r="B220" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>682</v>
+      <c r="B220" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="D220" t="s">
         <v>521</v>
@@ -7811,80 +7798,79 @@
         <v>1991</v>
       </c>
       <c r="F220" t="s">
-        <v>682</v>
+        <v>610</v>
       </c>
       <c r="G220" t="s">
-        <v>685</v>
+        <v>622</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B221" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D221" t="s">
+        <v>521</v>
+      </c>
+      <c r="E221">
+        <v>1991</v>
+      </c>
+      <c r="F221" t="s">
+        <v>682</v>
+      </c>
+      <c r="G221" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B222" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C222" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D221">
+      <c r="D222">
         <v>1992</v>
-      </c>
-      <c r="E221">
-        <v>1992</v>
-      </c>
-      <c r="F221" t="s">
-        <v>194</v>
-      </c>
-      <c r="G221" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D222" t="s">
-        <v>292</v>
       </c>
       <c r="E222">
         <v>1992</v>
       </c>
       <c r="F222" t="s">
+        <v>194</v>
+      </c>
+      <c r="G222" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="6"/>
+      <c r="B223" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C223" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G222" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B223" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="D223">
-        <v>1992</v>
+      <c r="D223" t="s">
+        <v>292</v>
       </c>
       <c r="E223">
         <v>1992</v>
       </c>
       <c r="F223" t="s">
+        <v>282</v>
+      </c>
+      <c r="G223" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B224" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C224" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="G223" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="19"/>
-      <c r="B224" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C224" s="20" t="s">
-        <v>381</v>
       </c>
       <c r="D224">
         <v>1992</v>
@@ -7893,18 +7879,18 @@
         <v>1992</v>
       </c>
       <c r="F224" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G224" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B225" s="2" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="D225">
         <v>1992</v>
@@ -7913,19 +7899,18 @@
         <v>1992</v>
       </c>
       <c r="F225" t="s">
+        <v>381</v>
+      </c>
+      <c r="G225" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B226" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="G225" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="19"/>
-      <c r="B226" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="C226" s="20" t="s">
-        <v>440</v>
       </c>
       <c r="D226">
         <v>1992</v>
@@ -7934,19 +7919,18 @@
         <v>1992</v>
       </c>
       <c r="F226" t="s">
+        <v>421</v>
+      </c>
+      <c r="G226" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B227" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="G226" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="19"/>
-      <c r="B227" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="D227">
         <v>1992</v>
@@ -7955,19 +7939,18 @@
         <v>1992</v>
       </c>
       <c r="F227" t="s">
+        <v>440</v>
+      </c>
+      <c r="G227" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B228" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="G227" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="19"/>
-      <c r="B228" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>540</v>
       </c>
       <c r="D228">
         <v>1992</v>
@@ -7976,101 +7959,99 @@
         <v>1992</v>
       </c>
       <c r="F228" t="s">
-        <v>540</v>
+        <v>468</v>
       </c>
       <c r="G228" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B229" s="2" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D229" t="s">
-        <v>292</v>
+        <v>540</v>
+      </c>
+      <c r="D229">
+        <v>1992</v>
       </c>
       <c r="E229">
         <v>1992</v>
       </c>
       <c r="F229" t="s">
+        <v>540</v>
+      </c>
+      <c r="G229" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B230" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="G229" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="19"/>
-      <c r="B230" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="C230" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="D230">
-        <v>1992</v>
+      <c r="D230" t="s">
+        <v>292</v>
       </c>
       <c r="E230">
         <v>1992</v>
       </c>
       <c r="F230" t="s">
+        <v>556</v>
+      </c>
+      <c r="G230" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B231" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="G230" t="s">
+      <c r="D231">
+        <v>1992</v>
+      </c>
+      <c r="E231">
+        <v>1992</v>
+      </c>
+      <c r="F231" t="s">
+        <v>687</v>
+      </c>
+      <c r="G231" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="6"/>
+      <c r="B232" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C231" s="10" t="s">
+      <c r="C232" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D232" t="s">
         <v>50</v>
-      </c>
-      <c r="E231">
-        <v>1993</v>
-      </c>
-      <c r="F231" t="s">
-        <v>33</v>
-      </c>
-      <c r="G231" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B232" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D232">
-        <v>1993</v>
       </c>
       <c r="E232">
         <v>1993</v>
       </c>
       <c r="F232" t="s">
+        <v>33</v>
+      </c>
+      <c r="G232" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B233" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="G232" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="19"/>
-      <c r="B233" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>233</v>
       </c>
       <c r="D233">
         <v>1993</v>
@@ -8079,18 +8060,18 @@
         <v>1993</v>
       </c>
       <c r="F233" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="G233" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B234" s="2" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="D234">
         <v>1993</v>
@@ -8099,19 +8080,18 @@
         <v>1993</v>
       </c>
       <c r="F234" t="s">
+        <v>233</v>
+      </c>
+      <c r="G234" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B235" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="G234" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="19"/>
-      <c r="B235" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="C235" s="14" t="s">
-        <v>525</v>
       </c>
       <c r="D235">
         <v>1993</v>
@@ -8120,19 +8100,18 @@
         <v>1993</v>
       </c>
       <c r="F235" t="s">
+        <v>331</v>
+      </c>
+      <c r="G235" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B236" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C236" s="12" t="s">
         <v>525</v>
-      </c>
-      <c r="G235" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" s="19"/>
-      <c r="B236" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="D236">
         <v>1993</v>
@@ -8141,121 +8120,119 @@
         <v>1993</v>
       </c>
       <c r="F236" t="s">
+        <v>525</v>
+      </c>
+      <c r="G236" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B237" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="G236" t="s">
+      <c r="D237">
+        <v>1993</v>
+      </c>
+      <c r="E237">
+        <v>1993</v>
+      </c>
+      <c r="F237" t="s">
+        <v>646</v>
+      </c>
+      <c r="G237" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C238" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D237">
+      <c r="D238">
         <v>1994</v>
-      </c>
-      <c r="E237">
-        <v>1994</v>
-      </c>
-      <c r="F237" t="s">
-        <v>65</v>
-      </c>
-      <c r="G237" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="19"/>
-      <c r="B238" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C238" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D238" t="s">
-        <v>124</v>
       </c>
       <c r="E238">
         <v>1994</v>
       </c>
       <c r="F238" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="G238" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B239" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D239">
-        <v>1994</v>
+        <v>122</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D239" t="s">
+        <v>124</v>
       </c>
       <c r="E239">
         <v>1994</v>
       </c>
       <c r="F239" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="G239" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B240" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D240" t="s">
-        <v>124</v>
+        <v>173</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D240">
+        <v>1994</v>
       </c>
       <c r="E240">
         <v>1994</v>
       </c>
       <c r="F240" t="s">
+        <v>169</v>
+      </c>
+      <c r="G240" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B241" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G240" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B241" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C241" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D241">
-        <v>1994</v>
+      <c r="D241" t="s">
+        <v>124</v>
       </c>
       <c r="E241">
         <v>1994</v>
       </c>
       <c r="F241" t="s">
+        <v>265</v>
+      </c>
+      <c r="G241" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B242" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="G241" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="19"/>
-      <c r="B242" s="19" t="s">
-        <v>709</v>
-      </c>
-      <c r="C242" s="20" t="s">
-        <v>701</v>
       </c>
       <c r="D242">
         <v>1994</v>
@@ -8264,40 +8241,38 @@
         <v>1994</v>
       </c>
       <c r="F242" t="s">
+        <v>295</v>
+      </c>
+      <c r="G242" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B243" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="G242" t="s">
+      <c r="D243">
+        <v>1994</v>
+      </c>
+      <c r="E243">
+        <v>1994</v>
+      </c>
+      <c r="F243" t="s">
+        <v>701</v>
+      </c>
+      <c r="G243" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="19"/>
-      <c r="B243" s="2" t="s">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B244" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C244" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D243">
-        <v>1995</v>
-      </c>
-      <c r="E243">
-        <v>1995</v>
-      </c>
-      <c r="F243" t="s">
-        <v>135</v>
-      </c>
-      <c r="G243" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="19"/>
-      <c r="B244" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C244" s="20" t="s">
-        <v>194</v>
       </c>
       <c r="D244">
         <v>1995</v>
@@ -8306,18 +8281,18 @@
         <v>1995</v>
       </c>
       <c r="F244" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="G244" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B245" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="D245">
         <v>1995</v>
@@ -8326,18 +8301,18 @@
         <v>1995</v>
       </c>
       <c r="F245" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="G245" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B246" s="2" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="D246">
         <v>1995</v>
@@ -8346,103 +8321,99 @@
         <v>1995</v>
       </c>
       <c r="F246" t="s">
+        <v>246</v>
+      </c>
+      <c r="G246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B247" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G246" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="19"/>
-      <c r="B247" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C247" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="D247" t="s">
-        <v>407</v>
+      <c r="D247">
+        <v>1995</v>
       </c>
       <c r="E247">
         <v>1995</v>
       </c>
       <c r="F247" t="s">
+        <v>326</v>
+      </c>
+      <c r="G247" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B248" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G247" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="19"/>
-      <c r="B248" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="C248" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D248">
-        <v>1995</v>
+      <c r="D248" t="s">
+        <v>407</v>
       </c>
       <c r="E248">
         <v>1995</v>
       </c>
       <c r="F248" t="s">
+        <v>397</v>
+      </c>
+      <c r="G248" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B249" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="G248" t="s">
+      <c r="D249">
+        <v>1995</v>
+      </c>
+      <c r="E249">
+        <v>1995</v>
+      </c>
+      <c r="F249" t="s">
+        <v>655</v>
+      </c>
+      <c r="G249" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11" t="s">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="6"/>
+      <c r="B250" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C249" s="10" t="s">
+      <c r="C250" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D250" t="s">
         <v>47</v>
-      </c>
-      <c r="E249">
-        <v>1996</v>
-      </c>
-      <c r="F249" t="s">
-        <v>33</v>
-      </c>
-      <c r="G249" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="19"/>
-      <c r="B250" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C250" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D250">
-        <v>1996</v>
       </c>
       <c r="E250">
         <v>1996</v>
       </c>
       <c r="F250" t="s">
+        <v>33</v>
+      </c>
+      <c r="G250" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B251" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G250" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="19"/>
-      <c r="B251" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C251" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="D251">
         <v>1996</v>
@@ -8451,59 +8422,58 @@
         <v>1996</v>
       </c>
       <c r="F251" t="s">
+        <v>53</v>
+      </c>
+      <c r="G251" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B252" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G251" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B252" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D252" t="s">
-        <v>47</v>
+      <c r="D252">
+        <v>1996</v>
       </c>
       <c r="E252">
         <v>1996</v>
       </c>
       <c r="F252" t="s">
+        <v>76</v>
+      </c>
+      <c r="G252" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B253" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G252" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="19"/>
-      <c r="B253" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C253" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D253">
-        <v>1996</v>
+      <c r="D253" t="s">
+        <v>47</v>
       </c>
       <c r="E253">
         <v>1996</v>
       </c>
       <c r="F253" t="s">
+        <v>127</v>
+      </c>
+      <c r="G253" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B254" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G253" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B254" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C254" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="D254">
         <v>1996</v>
@@ -8512,18 +8482,18 @@
         <v>1996</v>
       </c>
       <c r="F254" t="s">
+        <v>150</v>
+      </c>
+      <c r="G254" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B255" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C255" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="G254" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B255" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C255" s="14" t="s">
-        <v>450</v>
       </c>
       <c r="D255">
         <v>1996</v>
@@ -8532,19 +8502,18 @@
         <v>1996</v>
       </c>
       <c r="F255" t="s">
+        <v>176</v>
+      </c>
+      <c r="G255" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B256" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C256" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="G255" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="19"/>
-      <c r="B256" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="C256" s="20" t="s">
-        <v>505</v>
       </c>
       <c r="D256">
         <v>1996</v>
@@ -8553,19 +8522,18 @@
         <v>1996</v>
       </c>
       <c r="F256" t="s">
+        <v>450</v>
+      </c>
+      <c r="G256" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B257" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="G256" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="19"/>
-      <c r="B257" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="C257" s="20" t="s">
-        <v>609</v>
       </c>
       <c r="D257">
         <v>1996</v>
@@ -8574,18 +8542,18 @@
         <v>1996</v>
       </c>
       <c r="F257" t="s">
-        <v>610</v>
+        <v>505</v>
       </c>
       <c r="G257" t="s">
-        <v>620</v>
+        <v>519</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B258" s="2" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>673</v>
+        <v>609</v>
       </c>
       <c r="D258">
         <v>1996</v>
@@ -8594,19 +8562,18 @@
         <v>1996</v>
       </c>
       <c r="F258" t="s">
+        <v>610</v>
+      </c>
+      <c r="G258" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B259" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="G258" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="19"/>
-      <c r="B259" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>687</v>
       </c>
       <c r="D259">
         <v>1996</v>
@@ -8615,40 +8582,38 @@
         <v>1996</v>
       </c>
       <c r="F259" t="s">
+        <v>673</v>
+      </c>
+      <c r="G259" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B260" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="G259" t="s">
+      <c r="D260">
+        <v>1996</v>
+      </c>
+      <c r="E260">
+        <v>1996</v>
+      </c>
+      <c r="F260" t="s">
+        <v>687</v>
+      </c>
+      <c r="G260" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="19"/>
-      <c r="B260" s="19" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B261" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C261" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D260">
-        <v>1997</v>
-      </c>
-      <c r="E260">
-        <v>1997</v>
-      </c>
-      <c r="F260" t="s">
-        <v>295</v>
-      </c>
-      <c r="G260" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="19"/>
-      <c r="B261" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="C261" s="20" t="s">
-        <v>313</v>
       </c>
       <c r="D261">
         <v>1997</v>
@@ -8657,19 +8622,18 @@
         <v>1997</v>
       </c>
       <c r="F261" t="s">
+        <v>295</v>
+      </c>
+      <c r="G261" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B262" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="G261" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="19"/>
-      <c r="B262" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="D262">
         <v>1997</v>
@@ -8678,18 +8642,18 @@
         <v>1997</v>
       </c>
       <c r="F262" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="G262" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B263" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>369</v>
+      <c r="B263" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="D263">
         <v>1997</v>
@@ -8698,19 +8662,18 @@
         <v>1997</v>
       </c>
       <c r="F263" t="s">
+        <v>347</v>
+      </c>
+      <c r="G263" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B264" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="G263" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="19"/>
-      <c r="B264" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>428</v>
       </c>
       <c r="D264">
         <v>1997</v>
@@ -8719,18 +8682,18 @@
         <v>1997</v>
       </c>
       <c r="F264" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
       <c r="G264" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B265" s="2" t="s">
-        <v>575</v>
+        <v>434</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>556</v>
+        <v>428</v>
       </c>
       <c r="D265">
         <v>1997</v>
@@ -8739,19 +8702,18 @@
         <v>1997</v>
       </c>
       <c r="F265" t="s">
+        <v>428</v>
+      </c>
+      <c r="G265" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B266" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="G265" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" s="19"/>
-      <c r="B266" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C266" s="20" t="s">
-        <v>676</v>
       </c>
       <c r="D266">
         <v>1997</v>
@@ -8760,162 +8722,159 @@
         <v>1997</v>
       </c>
       <c r="F266" t="s">
+        <v>556</v>
+      </c>
+      <c r="G266" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B267" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D267">
+        <v>1997</v>
+      </c>
+      <c r="E267">
+        <v>1997</v>
+      </c>
+      <c r="F267" t="s">
         <v>677</v>
       </c>
-      <c r="G266" s="21" t="s">
+      <c r="G267" t="s">
         <v>680</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B267" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C267" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D267">
-        <v>1998</v>
-      </c>
-      <c r="E267">
-        <v>1998</v>
-      </c>
-      <c r="F267" t="s">
-        <v>65</v>
-      </c>
-      <c r="G267" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B268" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D268" t="s">
-        <v>88</v>
+        <v>65</v>
+      </c>
+      <c r="D268">
+        <v>1998</v>
       </c>
       <c r="E268">
         <v>1998</v>
       </c>
       <c r="F268" t="s">
+        <v>65</v>
+      </c>
+      <c r="G268" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B269" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G268" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C269" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D269">
-        <v>1998</v>
+      <c r="D269" t="s">
+        <v>88</v>
       </c>
       <c r="E269">
         <v>1998</v>
       </c>
       <c r="F269" t="s">
+        <v>83</v>
+      </c>
+      <c r="G269" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C270" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G269" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="19"/>
-      <c r="B270" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D270" t="s">
-        <v>88</v>
+      <c r="D270">
+        <v>1998</v>
       </c>
       <c r="E270">
         <v>1998</v>
       </c>
       <c r="F270" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="G270" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="19"/>
-      <c r="B271" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C271" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D271">
-        <v>1998</v>
+      <c r="B271" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D271" t="s">
+        <v>88</v>
       </c>
       <c r="E271">
         <v>1998</v>
       </c>
       <c r="F271" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="G271" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B272" s="2" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D272" t="s">
-        <v>88</v>
+        <v>233</v>
+      </c>
+      <c r="D272">
+        <v>1998</v>
       </c>
       <c r="E272">
         <v>1998</v>
       </c>
       <c r="F272" t="s">
+        <v>233</v>
+      </c>
+      <c r="G272" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B273" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G272" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="19"/>
-      <c r="B273" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C273" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D273">
-        <v>1998</v>
+      <c r="D273" t="s">
+        <v>88</v>
       </c>
       <c r="E273">
         <v>1998</v>
       </c>
       <c r="F273" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G273" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B274" s="2" t="s">
-        <v>465</v>
+        <v>339</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>463</v>
+        <v>331</v>
       </c>
       <c r="D274">
         <v>1998</v>
@@ -8924,18 +8883,18 @@
         <v>1998</v>
       </c>
       <c r="F274" t="s">
-        <v>463</v>
+        <v>331</v>
       </c>
       <c r="G274" t="s">
-        <v>466</v>
+        <v>340</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B275" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D275">
         <v>1998</v>
@@ -8944,19 +8903,18 @@
         <v>1998</v>
       </c>
       <c r="F275" t="s">
+        <v>463</v>
+      </c>
+      <c r="G275" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B276" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="G275" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="D276">
         <v>1998</v>
@@ -8965,18 +8923,19 @@
         <v>1998</v>
       </c>
       <c r="F276" t="s">
+        <v>468</v>
+      </c>
+      <c r="G276" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="6"/>
+      <c r="B277" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C277" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="G276" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B277" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>589</v>
       </c>
       <c r="D277">
         <v>1998</v>
@@ -8985,19 +8944,18 @@
         <v>1998</v>
       </c>
       <c r="F277" t="s">
+        <v>525</v>
+      </c>
+      <c r="G277" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B278" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="G277" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="19"/>
-      <c r="B278" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="C278" s="20" t="s">
-        <v>633</v>
       </c>
       <c r="D278">
         <v>1998</v>
@@ -9006,19 +8964,18 @@
         <v>1998</v>
       </c>
       <c r="F278" t="s">
+        <v>589</v>
+      </c>
+      <c r="G278" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B279" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="G278" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="19"/>
-      <c r="B279" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="C279" s="20" t="s">
-        <v>646</v>
       </c>
       <c r="D279">
         <v>1998</v>
@@ -9027,40 +8984,38 @@
         <v>1998</v>
       </c>
       <c r="F279" t="s">
+        <v>633</v>
+      </c>
+      <c r="G279" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B280" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="G279" t="s">
+      <c r="D280">
+        <v>1998</v>
+      </c>
+      <c r="E280">
+        <v>1998</v>
+      </c>
+      <c r="F280" t="s">
+        <v>646</v>
+      </c>
+      <c r="G280" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="19"/>
-      <c r="B280" s="19" t="s">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B281" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C280" s="20" t="s">
+      <c r="C281" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D280">
-        <v>1999</v>
-      </c>
-      <c r="E280">
-        <v>1999</v>
-      </c>
-      <c r="F280" t="s">
-        <v>176</v>
-      </c>
-      <c r="G280" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="19"/>
-      <c r="B281" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C281" s="20" t="s">
-        <v>253</v>
       </c>
       <c r="D281">
         <v>1999</v>
@@ -9069,19 +9024,18 @@
         <v>1999</v>
       </c>
       <c r="F281" t="s">
+        <v>176</v>
+      </c>
+      <c r="G281" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B282" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="G281" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="19"/>
-      <c r="B282" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C282" s="20" t="s">
-        <v>326</v>
       </c>
       <c r="D282">
         <v>1999</v>
@@ -9090,18 +9044,18 @@
         <v>1999</v>
       </c>
       <c r="F282" t="s">
+        <v>253</v>
+      </c>
+      <c r="G282" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B283" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="G282" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B283" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="C283" s="20" t="s">
-        <v>609</v>
       </c>
       <c r="D283">
         <v>1999</v>
@@ -9110,19 +9064,18 @@
         <v>1999</v>
       </c>
       <c r="F283" t="s">
-        <v>610</v>
+        <v>326</v>
       </c>
       <c r="G283" t="s">
-        <v>618</v>
+        <v>327</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="11"/>
-      <c r="B284" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>701</v>
+      <c r="B284" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="D284">
         <v>1999</v>
@@ -9131,38 +9084,39 @@
         <v>1999</v>
       </c>
       <c r="F284" t="s">
+        <v>610</v>
+      </c>
+      <c r="G284" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="6"/>
+      <c r="B285" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C285" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="G284" t="s">
+      <c r="D285">
+        <v>1999</v>
+      </c>
+      <c r="E285">
+        <v>1999</v>
+      </c>
+      <c r="F285" t="s">
+        <v>701</v>
+      </c>
+      <c r="G285" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B285" s="12" t="s">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B286" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C286" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="D285">
-        <v>2006</v>
-      </c>
-      <c r="E285">
-        <v>2006</v>
-      </c>
-      <c r="F285" t="s">
-        <v>450</v>
-      </c>
-      <c r="G285" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B286" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="C286" s="14" t="s">
-        <v>655</v>
       </c>
       <c r="D286">
         <v>2006</v>
@@ -9171,61 +9125,60 @@
         <v>2006</v>
       </c>
       <c r="F286" t="s">
+        <v>450</v>
+      </c>
+      <c r="G286" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B287" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C287" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="G286" t="s">
+      <c r="D287">
+        <v>2006</v>
+      </c>
+      <c r="E287">
+        <v>2006</v>
+      </c>
+      <c r="F287" t="s">
+        <v>655</v>
+      </c>
+      <c r="G287" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="11"/>
-      <c r="B287" s="4" t="s">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="6"/>
+      <c r="B288" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C287" s="5" t="s">
+      <c r="C288" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D287">
+      <c r="D288">
         <v>2007</v>
       </c>
-      <c r="E287">
+      <c r="E288">
         <v>2007</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F288" t="s">
         <v>33</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G288" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="11"/>
-      <c r="B288" s="11" t="s">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="6"/>
+      <c r="B289" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C288" s="10" t="s">
+      <c r="C289" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="D288">
-        <v>2009</v>
-      </c>
-      <c r="E288">
-        <v>2009</v>
-      </c>
-      <c r="F288" t="s">
-        <v>392</v>
-      </c>
-      <c r="G288" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="C289" s="20" t="s">
-        <v>505</v>
       </c>
       <c r="D289">
         <v>2009</v>
@@ -9234,60 +9187,59 @@
         <v>2009</v>
       </c>
       <c r="F289" t="s">
+        <v>392</v>
+      </c>
+      <c r="G289" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B290" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="G289" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B290" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="C290" s="14" t="s">
-        <v>505</v>
-      </c>
       <c r="D290">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E290">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F290" t="s">
         <v>505</v>
       </c>
       <c r="G290" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B291" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D291">
+        <v>2010</v>
+      </c>
+      <c r="E291">
+        <v>2010</v>
+      </c>
+      <c r="F291" t="s">
+        <v>505</v>
+      </c>
+      <c r="G291" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="11"/>
-      <c r="B291" s="11" t="s">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="6"/>
+      <c r="B292" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C291" s="10" t="s">
+      <c r="C292" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D291" t="s">
-        <v>56</v>
-      </c>
-      <c r="E291">
-        <v>2011</v>
-      </c>
-      <c r="F291" t="s">
-        <v>53</v>
-      </c>
-      <c r="G291" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="19"/>
-      <c r="B292" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C292" s="20" t="s">
-        <v>155</v>
       </c>
       <c r="D292" t="s">
         <v>56</v>
@@ -9296,19 +9248,18 @@
         <v>2011</v>
       </c>
       <c r="F292" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="G292" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="11"/>
-      <c r="B293" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>168</v>
+      <c r="B293" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D293" t="s">
         <v>56</v>
@@ -9317,19 +9268,19 @@
         <v>2011</v>
       </c>
       <c r="F293" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G293" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="11"/>
-      <c r="B294" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C294" s="10" t="s">
-        <v>277</v>
+      <c r="A294" s="6"/>
+      <c r="B294" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D294" t="s">
         <v>56</v>
@@ -9338,36 +9289,57 @@
         <v>2011</v>
       </c>
       <c r="F294" t="s">
+        <v>169</v>
+      </c>
+      <c r="G294" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="6"/>
+      <c r="B295" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C295" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G294" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B295" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="D295">
-        <v>2011</v>
+      <c r="D295" t="s">
+        <v>56</v>
       </c>
       <c r="E295">
         <v>2011</v>
       </c>
       <c r="F295" t="s">
+        <v>277</v>
+      </c>
+      <c r="G295" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B296" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="G295" t="s">
+      <c r="D296">
+        <v>2011</v>
+      </c>
+      <c r="E296">
+        <v>2011</v>
+      </c>
+      <c r="F296" t="s">
+        <v>505</v>
+      </c>
+      <c r="G296" t="s">
         <v>508</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G295">
-    <sortCondition ref="A2:A295"/>
-    <sortCondition ref="E2:E295"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G296">
+    <sortCondition ref="A2:A296"/>
+    <sortCondition ref="E2:E296"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
